--- a/Migration PC/Nouveau Feuille de calcul Microsoft Excel.xlsx
+++ b/Migration PC/Nouveau Feuille de calcul Microsoft Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>Stagiaire</t>
   </si>
@@ -111,14 +111,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="26" formatCode="hh:mm:ss"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     </dxf>
@@ -143,6 +153,21 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A1:D12" totalsRowShown="0">
+  <autoFilter ref="A1:D12"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Stagiaire"/>
+    <tableColumn id="2" name="Heure Début" dataDxfId="5"/>
+    <tableColumn id="3" name="Heure Retour" dataDxfId="4"/>
+    <tableColumn id="4" name="Durée" dataDxfId="3">
+      <calculatedColumnFormula>C2-B2</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="A1:D12" totalsRowShown="0">
   <autoFilter ref="A1:D12"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Stagiaire"/>
@@ -445,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +622,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <f t="shared" ref="B10:B12" si="1">C9</f>
+        <f t="shared" ref="B10:B11" si="1">C9</f>
         <v>0.57916666666666672</v>
       </c>
       <c r="C10" s="1">
@@ -686,13 +711,242 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.37916666666666665</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="D2" s="2">
+        <f>C2-B2</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.42083333333333334</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.43263888888888885</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D12" si="0">C3-B3</f>
+        <v>1.1805555555555514E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.47361111111111115</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.0277777777777801E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.47986111111111113</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.50972222222222219</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9861111111111061E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.57361111111111118</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2222222222222365E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.5854166666666667</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>3.472222222222221E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:B12" si="1">C8</f>
+        <v>0.62013888888888891</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="0"/>
+        <v>1.388888888888884E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="1"/>
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
+        <v>0.64444444444444449</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.66527777777777775</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.6972222222222223</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1944444444444331E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2">
+        <f>SUM(D2:D12)</f>
+        <v>0.26805555555555555</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <f>AVERAGE(D2:D12)</f>
+        <v>2.4368686868686869E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <f>MAX(D2:D12)</f>
+        <v>4.1666666666666685E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <f>MIN(D2:D12)</f>
+        <v>1.0416666666666741E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
